--- a/run_entrance/test_suite/test_suite_hc06决定补齐补正.xlsx
+++ b/run_entrance/test_suite/test_suite_hc06决定补齐补正.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -238,7 +238,7 @@
     <t>测试结果</t>
   </si>
   <si>
-    <t>sb_st_001_登录</t>
+    <t>hc_st_001_登录</t>
   </si>
   <si>
     <t>海口政务系统-登录</t>
@@ -250,7 +250,7 @@
     <t>成功登录进入工作台操作页面</t>
   </si>
   <si>
-    <t>sb_st_002_角色更换审批</t>
+    <t>hc_st_002_角色更换审批</t>
   </si>
   <si>
     <t>将管理员身份更换为审批员</t>
@@ -262,7 +262,7 @@
     <t>成功更换角色，出现我的待办主窗口</t>
   </si>
   <si>
-    <t>sb_st_003_我的待办进入</t>
+    <t>hc_st_003_我的待办进入</t>
   </si>
   <si>
     <t>海口政务系统-我的待办进入</t>
@@ -274,7 +274,7 @@
     <t>进入我的待办操作界面</t>
   </si>
   <si>
-    <t>sb_st_004_待办事项查询</t>
+    <t>hc_st_004_待办事项查询</t>
   </si>
   <si>
     <t>我的待办-查询待办事项</t>
@@ -286,7 +286,7 @@
     <t>能够显示未处理事项单子</t>
   </si>
   <si>
-    <t>sb_st_005_转办补齐补正提交</t>
+    <t>hc_st_005_转办补齐补正提交</t>
   </si>
   <si>
     <t>待办办理信息验证</t>
@@ -358,9 +358,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -387,6 +387,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -395,21 +418,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -423,16 +432,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -440,7 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -455,15 +464,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -477,29 +494,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -508,9 +502,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -518,14 +518,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -546,187 +546,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -737,6 +737,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -755,50 +764,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -824,16 +800,40 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,145 +845,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1853,7 +1853,7 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
@@ -1971,7 +1971,7 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>

--- a/run_entrance/test_suite/test_suite_hc06决定补齐补正.xlsx
+++ b/run_entrance/test_suite/test_suite_hc06决定补齐补正.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21045" windowHeight="9765" activeTab="2"/>
+    <workbookView windowWidth="21045" windowHeight="9765" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="PageElements" sheetId="1" r:id="rId1"/>
@@ -357,9 +357,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -388,6 +388,37 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -395,16 +426,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,9 +447,69 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,89 +525,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -546,103 +546,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -654,79 +708,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,52 +764,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -832,8 +791,49 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -845,10 +845,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -857,16 +857,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,115 +875,115 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1387,7 +1387,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1853,8 +1853,8 @@
   <sheetPr/>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="6"/>
@@ -1971,8 +1971,8 @@
   <sheetPr/>
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2255,7 +2255,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>89</v>
       </c>
@@ -2266,6 +2266,9 @@
         <v>48</v>
       </c>
       <c r="E19" s="8"/>
+      <c r="F19" s="3">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
